--- a/Mannual Testing Practice.xlsx
+++ b/Mannual Testing Practice.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pradip\Desktop\Mannual Testing Project\mero project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED7989-DED3-419A-AB68-3A7641C8EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version History" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Test Scenario" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Register" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Requirement Tracibility Matrix(" sheetId="4" r:id="rId7"/>
+    <sheet name="Version History" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="6" r:id="rId4"/>
+    <sheet name="Requirement Tracibility Matrix(" sheetId="4" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Project Name(Client Name)</t>
   </si>
@@ -118,10 +128,6 @@
   <si>
     <t>TS_001 
 Register Functionality</t>
-  </si>
-  <si>
-    <t>Validating the registration of account
-by providing mandatory fields only.</t>
   </si>
   <si>
     <t>Open the application
@@ -135,9 +141,6 @@
 4. Click on Continue Button</t>
   </si>
   <si>
-    <t>Account should be created and must be able to login</t>
-  </si>
-  <si>
     <t>Requirement ID</t>
   </si>
   <si>
@@ -145,39 +148,147 @@
   </si>
   <si>
     <t>Test Case ID's</t>
+  </si>
+  <si>
+    <t>Validate the working of account login functionality</t>
+  </si>
+  <si>
+    <t>TC_LF_001</t>
+  </si>
+  <si>
+    <t>TS_002 Login Functionality</t>
+  </si>
+  <si>
+    <t>TS_002 
+Login Functionality</t>
+  </si>
+  <si>
+    <t>Validating the login of account by providing mandatory fields only.</t>
+  </si>
+  <si>
+    <t>Account should be created 
+and must be able to login</t>
+  </si>
+  <si>
+    <t>TC_RF_002</t>
+  </si>
+  <si>
+    <t>(TS_001) 
+Register Functionality</t>
+  </si>
+  <si>
+    <t>Validate Registering an Account by providing only the Mandatory fields</t>
+  </si>
+  <si>
+    <t>1. Open the Application (https://demo.opencart.com) in any Browser</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into the Mandatory Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and  Privacy Policy Fields)
+4. Click on 'Continue' button (ER-1)
+5. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page and a confirm email should be sent to the registed email address</t>
+  </si>
+  <si>
+    <t>Validate 'Thank you for registering' email is sent to the registered email address as a confirmation for registering the account</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into the Mandatory Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and  Privacy Policy Fields)
+4. Click on 'Continue' button  
+5. Check the email address used for registering the account (Verify ER-1, ER-2. ER-3)
+6. Click on the Login page link from the Email body (Verify ER-4)</t>
+  </si>
+  <si>
+    <t>1. Validate a confirmation email for registering the account is sent to the registered email address. 
+2. Validate the Email subject, body and from address of the received email.
+3. Validate there is a link to the login page provided in the Email body
+4. User should be taken to the Login page</t>
+  </si>
+  <si>
+    <t>TC_RF_001
+TC_RF_002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -191,61 +302,123 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -435,23 +608,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="E10:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="21.38"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10">
+    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
@@ -467,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
@@ -477,79 +655,88 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F10"/>
-    <hyperlink display="Version 1.0" location="Test Scenario!A1" ref="F12"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F12" location="Test Scenario!A1" display="Version 1.0" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.38"/>
-    <col customWidth="1" min="2" max="2" width="12.38"/>
-    <col customWidth="1" min="3" max="3" width="39.38"/>
-    <col customWidth="1" min="4" max="4" width="8.0"/>
-    <col customWidth="1" min="5" max="5" width="17.5"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -565,9 +752,9 @@
       <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -581,42 +768,67 @@
         <v>21</v>
       </c>
       <c r="E11" s="3">
-        <v>27.0</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="TS_001 &#10;Register Functionality" location="Register!A1" ref="A11"/>
+    <hyperlink ref="A11" location="Register!A1" display="TS_001 _x000a_Register Functionality" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A12" location="Login!A1" display="TS_001 Login Functionality" xr:uid="{E83E137E-A736-4094-A973-77F453C6CC9D}"/>
   </hyperlinks>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="27.88"/>
-    <col customWidth="1" min="4" max="4" width="22.25"/>
-    <col customWidth="1" min="5" max="5" width="45.5"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -651,110 +863,254 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{90B1CB24-4A18-4D12-ACE6-82584809FFE1}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE76D8-0640-441B-BE3A-7C9EE65BAC0F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="39.38"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>33</v>
@@ -762,19 +1118,24 @@
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D9" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>